--- a/Python/src/18 Financial Python/Spreadsheets/data/charts3D.xlsx
+++ b/Python/src/18 Financial Python/Spreadsheets/data/charts3D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,12 +78,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -540,7 +539,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
